--- a/Code/Results/Cases/Case_8_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.86495825409835</v>
+        <v>13.89144772717513</v>
       </c>
       <c r="C2">
-        <v>8.072211789919233</v>
+        <v>9.023684531121932</v>
       </c>
       <c r="D2">
-        <v>5.749098517218353</v>
+        <v>5.318190520996537</v>
       </c>
       <c r="E2">
-        <v>5.684139722877286</v>
+        <v>6.228165840700468</v>
       </c>
       <c r="F2">
-        <v>31.20266492498907</v>
+        <v>28.21914559650955</v>
       </c>
       <c r="G2">
-        <v>2.135152276129409</v>
+        <v>7.922293924624197</v>
       </c>
       <c r="H2">
-        <v>3.504493813556759</v>
+        <v>3.022906540497434</v>
       </c>
       <c r="I2">
-        <v>4.187623155191447</v>
+        <v>3.643031019168648</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.19457828064536</v>
+        <v>20.73554615306192</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.38623198765609</v>
       </c>
       <c r="M2">
-        <v>12.51244071961338</v>
+        <v>14.41345996310773</v>
       </c>
       <c r="N2">
-        <v>6.325240267758758</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.77603179678789</v>
+        <v>12.26290373131214</v>
       </c>
       <c r="P2">
-        <v>15.87811324507297</v>
+        <v>6.657458968255233</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.44627293188137</v>
+      </c>
+      <c r="R2">
+        <v>14.83327541420368</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.99037511605906</v>
+        <v>13.06366649173985</v>
       </c>
       <c r="C3">
-        <v>7.502496663081793</v>
+        <v>8.410545666696828</v>
       </c>
       <c r="D3">
-        <v>5.721586292592934</v>
+        <v>5.248439160421663</v>
       </c>
       <c r="E3">
-        <v>5.484437204936262</v>
+        <v>6.094302458055133</v>
       </c>
       <c r="F3">
-        <v>30.34194366846749</v>
+        <v>27.44210394644929</v>
       </c>
       <c r="G3">
-        <v>2.140467282100196</v>
+        <v>8.575764210500893</v>
       </c>
       <c r="H3">
-        <v>3.740515951540897</v>
+        <v>3.218437916062226</v>
       </c>
       <c r="I3">
-        <v>4.396836069191139</v>
+        <v>3.805665103487057</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.83613272169979</v>
+        <v>20.4693152554588</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.31667088537051</v>
       </c>
       <c r="M3">
-        <v>11.82218841454282</v>
+        <v>14.10163182020719</v>
       </c>
       <c r="N3">
-        <v>6.124039567938897</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.36019650569032</v>
+        <v>11.48256406962153</v>
       </c>
       <c r="P3">
-        <v>15.94005966294531</v>
+        <v>6.470386628897433</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.04552921072818</v>
+      </c>
+      <c r="R3">
+        <v>14.91624378268283</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.4249324767713</v>
+        <v>12.52533594882104</v>
       </c>
       <c r="C4">
-        <v>7.136898254976121</v>
+        <v>8.015788444264823</v>
       </c>
       <c r="D4">
-        <v>5.703392729321048</v>
+        <v>5.20403736386447</v>
       </c>
       <c r="E4">
-        <v>5.357597154732028</v>
+        <v>6.009456248502022</v>
       </c>
       <c r="F4">
-        <v>29.80737119571709</v>
+        <v>26.95477865513261</v>
       </c>
       <c r="G4">
-        <v>2.143838415940685</v>
+        <v>8.990775175039346</v>
       </c>
       <c r="H4">
-        <v>3.890479340627351</v>
+        <v>3.342865883632065</v>
       </c>
       <c r="I4">
-        <v>4.530350400672662</v>
+        <v>3.909984314845127</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.61430834227089</v>
+        <v>20.30234511837509</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.26745958857007</v>
       </c>
       <c r="M4">
-        <v>11.38037672406337</v>
+        <v>13.92189211496884</v>
       </c>
       <c r="N4">
-        <v>5.997056230589298</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.09671166803746</v>
+        <v>10.97461720615151</v>
       </c>
       <c r="P4">
-        <v>15.97845562198778</v>
+        <v>6.352910812365254</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.790904163414821</v>
+      </c>
+      <c r="R4">
+        <v>14.9670053819566</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.18109351221988</v>
+        <v>12.29228518789766</v>
       </c>
       <c r="C5">
-        <v>6.989421788931535</v>
+        <v>7.855493002189371</v>
       </c>
       <c r="D5">
-        <v>5.695607797343562</v>
+        <v>5.185882759952642</v>
       </c>
       <c r="E5">
-        <v>5.303883934643464</v>
+        <v>5.973485271719134</v>
       </c>
       <c r="F5">
-        <v>29.57432834247759</v>
+        <v>26.74036493132263</v>
       </c>
       <c r="G5">
-        <v>2.145250348997829</v>
+        <v>9.164723189228344</v>
       </c>
       <c r="H5">
-        <v>3.953359165144771</v>
+        <v>3.395090491502077</v>
       </c>
       <c r="I5">
-        <v>4.588529766410063</v>
+        <v>3.956554700585452</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.5130478701949</v>
+        <v>20.22367058730725</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.23737739701587</v>
       </c>
       <c r="M5">
-        <v>11.19380461408536</v>
+        <v>13.84538317122116</v>
       </c>
       <c r="N5">
-        <v>5.944868699556427</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.98555290280872</v>
+        <v>10.75829127396415</v>
       </c>
       <c r="P5">
-        <v>15.99074395451582</v>
+        <v>6.304786605049436</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.683332294772422</v>
+      </c>
+      <c r="R5">
+        <v>14.98474023099152</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.13236125986602</v>
+        <v>12.24558204872671</v>
       </c>
       <c r="C6">
-        <v>6.971435218741385</v>
+        <v>7.834929202903878</v>
       </c>
       <c r="D6">
-        <v>5.694249172423222</v>
+        <v>5.183262334173574</v>
       </c>
       <c r="E6">
-        <v>5.293734769370367</v>
+        <v>5.966588792136521</v>
       </c>
       <c r="F6">
-        <v>29.51853721355755</v>
+        <v>26.68816549054136</v>
       </c>
       <c r="G6">
-        <v>2.145499347007757</v>
+        <v>9.195415928304985</v>
       </c>
       <c r="H6">
-        <v>3.964461688645603</v>
+        <v>3.40432394707134</v>
       </c>
       <c r="I6">
-        <v>4.601423088348348</v>
+        <v>3.96810550247999</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.4833862191289</v>
+        <v>20.19859474901569</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.22204838419962</v>
       </c>
       <c r="M6">
-        <v>11.15990976446414</v>
+        <v>13.82501161380583</v>
       </c>
       <c r="N6">
-        <v>5.936628278133208</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.964711002498266</v>
+        <v>10.71939400861766</v>
       </c>
       <c r="P6">
-        <v>15.98857904651269</v>
+        <v>6.297204151018312</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.663184671947658</v>
+      </c>
+      <c r="R6">
+        <v>14.98413286459387</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.40074571689631</v>
+        <v>12.48423417950999</v>
       </c>
       <c r="C7">
-        <v>7.152851049537704</v>
+        <v>7.988892102685698</v>
       </c>
       <c r="D7">
-        <v>5.703198117006139</v>
+        <v>5.207563285985327</v>
       </c>
       <c r="E7">
-        <v>5.353738480652167</v>
+        <v>6.010422663079754</v>
       </c>
       <c r="F7">
-        <v>29.75818534871274</v>
+        <v>26.821466643982</v>
       </c>
       <c r="G7">
-        <v>2.143892035046173</v>
+        <v>9.045735960427351</v>
       </c>
       <c r="H7">
-        <v>3.892892401487073</v>
+        <v>3.346931635856708</v>
       </c>
       <c r="I7">
-        <v>4.539504702734581</v>
+        <v>3.922709704861499</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.57811508257387</v>
+        <v>20.22148478127622</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.19973798199427</v>
       </c>
       <c r="M7">
-        <v>11.37075183144401</v>
+        <v>13.86729475038146</v>
       </c>
       <c r="N7">
-        <v>5.99764442557137</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.08909735375717</v>
+        <v>10.93900469526574</v>
       </c>
       <c r="P7">
-        <v>15.96717469392982</v>
+        <v>6.351134720151028</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.776023097948322</v>
+      </c>
+      <c r="R7">
+        <v>14.94206359891558</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.54356387289871</v>
+        <v>13.53259667361006</v>
       </c>
       <c r="C8">
-        <v>7.900700839955269</v>
+        <v>8.708727194893942</v>
       </c>
       <c r="D8">
-        <v>5.739929702040437</v>
+        <v>5.306350620703078</v>
       </c>
       <c r="E8">
-        <v>5.61219091433838</v>
+        <v>6.192069081967666</v>
       </c>
       <c r="F8">
-        <v>30.84848537087119</v>
+        <v>27.62266695446456</v>
       </c>
       <c r="G8">
-        <v>2.137006880200087</v>
+        <v>8.371525442586854</v>
       </c>
       <c r="H8">
-        <v>3.586827340959957</v>
+        <v>3.097561785320492</v>
       </c>
       <c r="I8">
-        <v>4.269402546125308</v>
+        <v>3.717747973485266</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.0262924134151</v>
+        <v>20.44998257118737</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.20582258301807</v>
       </c>
       <c r="M8">
-        <v>12.26940241299003</v>
+        <v>14.16594081739593</v>
       </c>
       <c r="N8">
-        <v>6.258279666713265</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10.62667400207056</v>
+        <v>11.91160541278007</v>
       </c>
       <c r="P8">
-        <v>15.88449543901987</v>
+        <v>6.587704124221702</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.27850057937985</v>
+      </c>
+      <c r="R8">
+        <v>14.79990429717645</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.5885351147264</v>
+        <v>15.4457790689547</v>
       </c>
       <c r="C9">
-        <v>9.215648387256156</v>
+        <v>10.10132710202465</v>
       </c>
       <c r="D9">
-        <v>5.801516003502346</v>
+        <v>5.474841691414185</v>
       </c>
       <c r="E9">
-        <v>6.09133326838495</v>
+        <v>6.516954087902765</v>
       </c>
       <c r="F9">
-        <v>33.00675515154534</v>
+        <v>29.49654321086053</v>
       </c>
       <c r="G9">
-        <v>2.124275159949081</v>
+        <v>6.882331722347912</v>
       </c>
       <c r="H9">
-        <v>3.022963105884501</v>
+        <v>2.633004162425123</v>
       </c>
       <c r="I9">
-        <v>3.765180179427722</v>
+        <v>3.326624979487998</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.94932860877965</v>
+        <v>21.09785463931339</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.35686328637528</v>
       </c>
       <c r="M9">
-        <v>13.89489996107005</v>
+        <v>14.99309301420899</v>
       </c>
       <c r="N9">
-        <v>6.738291645629841</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11.62178015556373</v>
+        <v>13.69694383605839</v>
       </c>
       <c r="P9">
-        <v>15.7453153193062</v>
+        <v>7.035584153517243</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.2293351003341</v>
+      </c>
+      <c r="R9">
+        <v>14.59178226760564</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.87908277468773</v>
+        <v>16.56616170557149</v>
       </c>
       <c r="C10">
-        <v>10.14402973840563</v>
+        <v>10.88012347030901</v>
       </c>
       <c r="D10">
-        <v>5.843165799224691</v>
+        <v>5.625992870883458</v>
       </c>
       <c r="E10">
-        <v>6.349277109732523</v>
+        <v>6.699081373614804</v>
       </c>
       <c r="F10">
-        <v>34.32955869543672</v>
+        <v>30.1920743629195</v>
       </c>
       <c r="G10">
-        <v>2.115571673781159</v>
+        <v>6.799876779467549</v>
       </c>
       <c r="H10">
-        <v>2.661451536967056</v>
+        <v>2.351420748657519</v>
       </c>
       <c r="I10">
-        <v>3.43064538659938</v>
+        <v>3.083004862719022</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.45252195222288</v>
+        <v>21.17242711576149</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.15233216537244</v>
       </c>
       <c r="M10">
-        <v>15.10698094029642</v>
+        <v>15.34523440285478</v>
       </c>
       <c r="N10">
-        <v>6.967680054525315</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>12.20645174576934</v>
+        <v>14.72832035188066</v>
       </c>
       <c r="P10">
-        <v>15.58721851292053</v>
+        <v>7.233261214028689</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.74623881573196</v>
+      </c>
+      <c r="R10">
+        <v>14.3177688527948</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.89937164342656</v>
+        <v>16.46523847626976</v>
       </c>
       <c r="C11">
-        <v>10.81056540429705</v>
+        <v>11.10251320444504</v>
       </c>
       <c r="D11">
-        <v>5.907405384108677</v>
+        <v>5.875463609106702</v>
       </c>
       <c r="E11">
-        <v>6.025125534852701</v>
+        <v>6.40642369650085</v>
       </c>
       <c r="F11">
-        <v>33.17509287222104</v>
+        <v>28.25699478287499</v>
       </c>
       <c r="G11">
-        <v>2.113120739371283</v>
+        <v>9.599659876814938</v>
       </c>
       <c r="H11">
-        <v>3.407764103106429</v>
+        <v>3.19884715008583</v>
       </c>
       <c r="I11">
-        <v>3.36456150766488</v>
+        <v>3.06096288437941</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.37651301834018</v>
+        <v>19.73365202322925</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.98029393438333</v>
       </c>
       <c r="M11">
-        <v>15.38430102418288</v>
+        <v>14.36034450911292</v>
       </c>
       <c r="N11">
-        <v>6.212652410726292</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>11.62636423772884</v>
+        <v>14.76302023589179</v>
       </c>
       <c r="P11">
-        <v>15.06689155144588</v>
+        <v>6.443592086499147</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.10242321880188</v>
+      </c>
+      <c r="R11">
+        <v>13.79297259296325</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.67224246477079</v>
+        <v>16.22024689856324</v>
       </c>
       <c r="C12">
-        <v>11.16507560333233</v>
+        <v>11.22254272472452</v>
       </c>
       <c r="D12">
-        <v>5.980483918021759</v>
+        <v>6.070718810225082</v>
       </c>
       <c r="E12">
-        <v>5.994201383671326</v>
+        <v>6.348002534685055</v>
       </c>
       <c r="F12">
-        <v>31.96573383444069</v>
+        <v>26.78976346378163</v>
       </c>
       <c r="G12">
-        <v>2.112708102544371</v>
+        <v>11.22452682225727</v>
       </c>
       <c r="H12">
-        <v>4.615603190647902</v>
+        <v>4.465965738830105</v>
       </c>
       <c r="I12">
-        <v>3.357746316328721</v>
+        <v>3.063103850592006</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.41140050554923</v>
+        <v>18.72268932667316</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.21206711463358</v>
       </c>
       <c r="M12">
-        <v>15.37700335910798</v>
+        <v>13.60848037793678</v>
       </c>
       <c r="N12">
-        <v>5.595633922303051</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>11.01779741844762</v>
+        <v>14.66100448261215</v>
       </c>
       <c r="P12">
-        <v>14.70435969316932</v>
+        <v>5.811016475991577</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.47837354361346</v>
+      </c>
+      <c r="R12">
+        <v>13.51898919858547</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.2085497838349</v>
+        <v>15.85337889168118</v>
       </c>
       <c r="C13">
-        <v>11.33281624283523</v>
+        <v>11.3728039980859</v>
       </c>
       <c r="D13">
-        <v>6.061900491095072</v>
+        <v>6.191638280040598</v>
       </c>
       <c r="E13">
-        <v>6.179374943466297</v>
+        <v>6.501637418890365</v>
       </c>
       <c r="F13">
-        <v>30.55390874099159</v>
+        <v>25.68431462055029</v>
       </c>
       <c r="G13">
-        <v>2.113890477648936</v>
+        <v>10.91581805801886</v>
       </c>
       <c r="H13">
-        <v>5.950795406172524</v>
+        <v>5.825744866343017</v>
       </c>
       <c r="I13">
-        <v>3.410306938293564</v>
+        <v>3.098778220302329</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.41714142478391</v>
+        <v>18.0061846036605</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.70689794741611</v>
       </c>
       <c r="M13">
-        <v>15.14121074934789</v>
+        <v>13.02524043016403</v>
       </c>
       <c r="N13">
-        <v>5.068248873796753</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>10.33126283702107</v>
+        <v>14.48593123969546</v>
       </c>
       <c r="P13">
-        <v>14.42676668754953</v>
+        <v>5.2845903039431</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.826754053000155</v>
+      </c>
+      <c r="R13">
+        <v>13.39599413840771</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.76539976513223</v>
+        <v>15.52979481481555</v>
       </c>
       <c r="C14">
-        <v>11.37327553485373</v>
+        <v>11.49632659121989</v>
       </c>
       <c r="D14">
-        <v>6.125218739499503</v>
+        <v>6.238143230599301</v>
       </c>
       <c r="E14">
-        <v>6.433239177182096</v>
+        <v>6.751943801178253</v>
       </c>
       <c r="F14">
-        <v>29.45328009931425</v>
+        <v>25.04171942913066</v>
       </c>
       <c r="G14">
-        <v>2.115440452275797</v>
+        <v>9.876131639903175</v>
       </c>
       <c r="H14">
-        <v>6.92248116971054</v>
+        <v>6.804835814280554</v>
       </c>
       <c r="I14">
-        <v>3.476407035043525</v>
+        <v>3.14252975863683</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.70209251736981</v>
+        <v>17.61531895752316</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.45003429356747</v>
       </c>
       <c r="M14">
-        <v>14.86787247206212</v>
+        <v>12.68031098923598</v>
       </c>
       <c r="N14">
-        <v>4.771304923760495</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.809984708517627</v>
+        <v>14.32419447610481</v>
       </c>
       <c r="P14">
-        <v>14.274604978556</v>
+        <v>4.993703657220403</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.35110353830361</v>
+      </c>
+      <c r="R14">
+        <v>13.36442714453475</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.59911432955525</v>
+        <v>15.41502079376464</v>
       </c>
       <c r="C15">
-        <v>11.34899118821246</v>
+        <v>11.53377316743937</v>
       </c>
       <c r="D15">
-        <v>6.139753384373414</v>
+        <v>6.230693955155123</v>
       </c>
       <c r="E15">
-        <v>6.49929575898001</v>
+        <v>6.829839031552411</v>
       </c>
       <c r="F15">
-        <v>29.12770916217124</v>
+        <v>24.93149166682182</v>
       </c>
       <c r="G15">
-        <v>2.116186120245465</v>
+        <v>9.300560036154081</v>
       </c>
       <c r="H15">
-        <v>7.153239694240277</v>
+        <v>7.034573002795903</v>
       </c>
       <c r="I15">
-        <v>3.509897628738722</v>
+        <v>3.166120737369658</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.51142343766454</v>
+        <v>17.55808961651967</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.42157498821966</v>
       </c>
       <c r="M15">
-        <v>14.74897019346512</v>
+        <v>12.61632906330218</v>
       </c>
       <c r="N15">
-        <v>4.709279121740211</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.66434116081671</v>
+        <v>14.2625785790499</v>
       </c>
       <c r="P15">
-        <v>14.24984742572998</v>
+        <v>4.935851850828922</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.225523486622299</v>
+      </c>
+      <c r="R15">
+        <v>13.37474254534439</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.11573210664534</v>
+        <v>15.11453453140534</v>
       </c>
       <c r="C16">
-        <v>10.96187544159382</v>
+        <v>11.49579713464792</v>
       </c>
       <c r="D16">
-        <v>6.101099334945297</v>
+        <v>6.047424964929671</v>
       </c>
       <c r="E16">
-        <v>6.34525271397204</v>
+        <v>6.78230140582343</v>
       </c>
       <c r="F16">
-        <v>28.76593772868057</v>
+        <v>25.42125886957964</v>
       </c>
       <c r="G16">
-        <v>2.119672351393826</v>
+        <v>7.075114668772945</v>
       </c>
       <c r="H16">
-        <v>6.993272045321536</v>
+        <v>6.847795163250174</v>
       </c>
       <c r="I16">
-        <v>3.647034424521935</v>
+        <v>3.255202856231213</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.46370541149647</v>
+        <v>17.95832578965268</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.78160726195958</v>
       </c>
       <c r="M16">
-        <v>14.27273641602075</v>
+        <v>12.83494087016016</v>
       </c>
       <c r="N16">
-        <v>4.701459214554152</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>9.524171003659029</v>
+        <v>14.03752597845921</v>
       </c>
       <c r="P16">
-        <v>14.36930529927549</v>
+        <v>4.956310780273003</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.159300219356416</v>
+      </c>
+      <c r="R16">
+        <v>13.54863758647979</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.98516709909695</v>
+        <v>15.03776118498062</v>
       </c>
       <c r="C17">
-        <v>10.63515351253059</v>
+        <v>11.34421188048059</v>
       </c>
       <c r="D17">
-        <v>6.036308683197547</v>
+        <v>5.905460944736181</v>
       </c>
       <c r="E17">
-        <v>6.062035001441983</v>
+        <v>6.558012157544368</v>
       </c>
       <c r="F17">
-        <v>29.08823174394878</v>
+        <v>26.04664782049266</v>
       </c>
       <c r="G17">
-        <v>2.121534823486387</v>
+        <v>6.575535788824967</v>
       </c>
       <c r="H17">
-        <v>6.331748374942779</v>
+        <v>6.156718036617366</v>
       </c>
       <c r="I17">
-        <v>3.718060071889727</v>
+        <v>3.303183317459391</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.80744325784859</v>
+        <v>18.43318074673307</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.17751194011979</v>
       </c>
       <c r="M17">
-        <v>14.05228594115963</v>
+        <v>13.14604041975308</v>
       </c>
       <c r="N17">
-        <v>4.839576856822831</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.700084550077737</v>
+        <v>13.91959878328384</v>
       </c>
       <c r="P17">
-        <v>14.53808982446247</v>
+        <v>5.113005805174355</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.359898831424365</v>
+      </c>
+      <c r="R17">
+        <v>13.70694077655378</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1635201648349</v>
+        <v>15.19385826815805</v>
       </c>
       <c r="C18">
-        <v>10.31516943868405</v>
+        <v>11.13449415353637</v>
       </c>
       <c r="D18">
-        <v>5.95183659318238</v>
+        <v>5.76781153601877</v>
       </c>
       <c r="E18">
-        <v>5.766052608031515</v>
+        <v>6.281650094643859</v>
       </c>
       <c r="F18">
-        <v>30.06647736155569</v>
+        <v>27.04841805580361</v>
       </c>
       <c r="G18">
-        <v>2.1221149603898</v>
+        <v>6.454193342200912</v>
       </c>
       <c r="H18">
-        <v>5.211796506765264</v>
+        <v>4.993726068012748</v>
       </c>
       <c r="I18">
-        <v>3.728114577474753</v>
+        <v>3.304796946946285</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.55984185455637</v>
+        <v>19.14042331654543</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.73421066410805</v>
       </c>
       <c r="M18">
-        <v>14.03956064205434</v>
+        <v>13.65731732326574</v>
       </c>
       <c r="N18">
-        <v>5.194703734801146</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>10.17585225141674</v>
+        <v>13.93308664247606</v>
       </c>
       <c r="P18">
-        <v>14.79197770775819</v>
+        <v>5.480257603842349</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.834093865981473</v>
+      </c>
+      <c r="R18">
+        <v>13.90194451296861</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.54044362640558</v>
+        <v>15.5046325313368</v>
       </c>
       <c r="C19">
-        <v>10.05657795696053</v>
+        <v>10.9519631323143</v>
       </c>
       <c r="D19">
-        <v>5.880471498859841</v>
+        <v>5.654756227310981</v>
       </c>
       <c r="E19">
-        <v>5.707669806311029</v>
+        <v>6.191472761199304</v>
       </c>
       <c r="F19">
-        <v>31.41606813285466</v>
+        <v>28.26496705895262</v>
       </c>
       <c r="G19">
-        <v>2.121590415606895</v>
+        <v>6.357497725858488</v>
       </c>
       <c r="H19">
-        <v>3.953952979250572</v>
+        <v>3.672940868374644</v>
       </c>
       <c r="I19">
-        <v>3.702187840874961</v>
+        <v>3.286273396714039</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.54281980512269</v>
+        <v>19.97685333701986</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.37438623530477</v>
       </c>
       <c r="M19">
-        <v>14.18449636693076</v>
+        <v>14.28634169354796</v>
       </c>
       <c r="N19">
-        <v>5.785244311500692</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.84782255438525</v>
+        <v>14.06015417637953</v>
       </c>
       <c r="P19">
-        <v>15.10579245760287</v>
+        <v>6.075522445557372</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.48918763635381</v>
+      </c>
+      <c r="R19">
+        <v>14.1261900294872</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.49510148201545</v>
+        <v>16.2797836333856</v>
       </c>
       <c r="C20">
-        <v>9.948344197383447</v>
+        <v>10.83683115204951</v>
       </c>
       <c r="D20">
-        <v>5.833892467130852</v>
+        <v>5.57795137108053</v>
       </c>
       <c r="E20">
-        <v>6.270561896876983</v>
+        <v>6.630388833169218</v>
       </c>
       <c r="F20">
-        <v>33.85048798601258</v>
+        <v>30.15194636395772</v>
       </c>
       <c r="G20">
-        <v>2.117929821644039</v>
+        <v>6.238008901134455</v>
       </c>
       <c r="H20">
-        <v>2.7592103205149</v>
+        <v>2.421166582027837</v>
       </c>
       <c r="I20">
-        <v>3.545721359505143</v>
+        <v>3.173470816018378</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.21490835054337</v>
+        <v>21.21038860865709</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.2484690414892</v>
       </c>
       <c r="M20">
-        <v>14.77497104279884</v>
+        <v>15.2952516797731</v>
       </c>
       <c r="N20">
-        <v>6.907246100814718</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>12.03518477590469</v>
+        <v>14.52055648022029</v>
       </c>
       <c r="P20">
-        <v>15.59264059242746</v>
+        <v>7.187924214512702</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.61681448082963</v>
+      </c>
+      <c r="R20">
+        <v>14.41046492831513</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.54578083852832</v>
+        <v>16.92875548055168</v>
       </c>
       <c r="C21">
-        <v>10.58312171006216</v>
+        <v>10.79107087116766</v>
       </c>
       <c r="D21">
-        <v>5.859904683930202</v>
+        <v>5.769423462350722</v>
       </c>
       <c r="E21">
-        <v>6.579526991557676</v>
+        <v>6.944496774276143</v>
       </c>
       <c r="F21">
-        <v>35.18189011207073</v>
+        <v>29.5859803751838</v>
       </c>
       <c r="G21">
-        <v>2.111103621072388</v>
+        <v>10.9389353015321</v>
       </c>
       <c r="H21">
-        <v>2.442363630125887</v>
+        <v>2.196415162445051</v>
       </c>
       <c r="I21">
-        <v>3.27862074798022</v>
+        <v>3.009524035145731</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.84562765163519</v>
+        <v>20.68002246157136</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.66403192410773</v>
       </c>
       <c r="M21">
-        <v>15.72012476764849</v>
+        <v>15.11463524626492</v>
       </c>
       <c r="N21">
-        <v>7.238534611570309</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>12.62156214881315</v>
+        <v>14.94608409360203</v>
       </c>
       <c r="P21">
-        <v>15.56041404015384</v>
+        <v>7.460477843726017</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.02718975258724</v>
+      </c>
+      <c r="R21">
+        <v>14.02078678913539</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.19466029382556</v>
+        <v>17.30973101524509</v>
       </c>
       <c r="C22">
-        <v>10.98491085908529</v>
+        <v>10.7366667872595</v>
       </c>
       <c r="D22">
-        <v>5.876540134937148</v>
+        <v>5.921507430722285</v>
       </c>
       <c r="E22">
-        <v>6.743597368526847</v>
+        <v>7.135160594194678</v>
       </c>
       <c r="F22">
-        <v>35.98949054395232</v>
+        <v>29.08853295548753</v>
       </c>
       <c r="G22">
-        <v>2.106763194710671</v>
+        <v>15.45042494545945</v>
       </c>
       <c r="H22">
-        <v>2.25153932863076</v>
+        <v>2.064229065838381</v>
       </c>
       <c r="I22">
-        <v>3.09997300752536</v>
+        <v>2.893467894433654</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.21988980719091</v>
+        <v>20.2576639357429</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.23997143910504</v>
       </c>
       <c r="M22">
-        <v>16.30471674255978</v>
+        <v>14.9331758010658</v>
       </c>
       <c r="N22">
-        <v>7.395845236454067</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.95180172329502</v>
+        <v>15.18346440811943</v>
       </c>
       <c r="P22">
-        <v>15.52710045958204</v>
+        <v>7.579036444806365</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.23736895971184</v>
+      </c>
+      <c r="R22">
+        <v>13.75602852742029</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.86922219981621</v>
+        <v>17.16070996878395</v>
       </c>
       <c r="C23">
-        <v>10.75693628931573</v>
+        <v>10.8273693358961</v>
       </c>
       <c r="D23">
-        <v>5.867282764212733</v>
+        <v>5.819883724918537</v>
       </c>
       <c r="E23">
-        <v>6.659340401024866</v>
+        <v>7.022467426221449</v>
       </c>
       <c r="F23">
-        <v>35.60528417178638</v>
+        <v>29.58576185207168</v>
       </c>
       <c r="G23">
-        <v>2.109038473045395</v>
+        <v>12.23905313369415</v>
       </c>
       <c r="H23">
-        <v>2.351511699514226</v>
+        <v>2.129852133683748</v>
       </c>
       <c r="I23">
-        <v>3.183590744731272</v>
+        <v>2.937935776327794</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.05726632644159</v>
+        <v>20.62312986610791</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.56641479298522</v>
       </c>
       <c r="M23">
-        <v>16.00145191771694</v>
+        <v>15.14071903830112</v>
       </c>
       <c r="N23">
-        <v>7.310874506805416</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.78234095305827</v>
+        <v>15.11359423201924</v>
       </c>
       <c r="P23">
-        <v>15.55755869096537</v>
+        <v>7.519368568142423</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.14787558400223</v>
+      </c>
+      <c r="R23">
+        <v>13.93502294741176</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.55536520935349</v>
+        <v>16.33427205787876</v>
       </c>
       <c r="C24">
-        <v>9.890879715761566</v>
+        <v>10.79188572977694</v>
       </c>
       <c r="D24">
-        <v>5.830725693157849</v>
+        <v>5.564803604507003</v>
       </c>
       <c r="E24">
-        <v>6.329416668581077</v>
+        <v>6.680233627133883</v>
       </c>
       <c r="F24">
-        <v>34.0576171588127</v>
+        <v>30.35257611787778</v>
       </c>
       <c r="G24">
-        <v>2.11785373699422</v>
+        <v>6.205450850740355</v>
       </c>
       <c r="H24">
-        <v>2.739586736908369</v>
+        <v>2.401333104276482</v>
       </c>
       <c r="I24">
-        <v>3.526440400330901</v>
+        <v>3.150674551331429</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.37855550548581</v>
+        <v>21.36004024828645</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.36444383844662</v>
       </c>
       <c r="M24">
-        <v>14.79240671178072</v>
+        <v>15.40596411194965</v>
       </c>
       <c r="N24">
-        <v>6.983379685364627</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>12.11206770678753</v>
+        <v>14.53856810015133</v>
       </c>
       <c r="P24">
-        <v>15.65415640148818</v>
+        <v>7.264871581792296</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.69239213175321</v>
+      </c>
+      <c r="R24">
+        <v>14.45890720936008</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.02824864123084</v>
+        <v>14.94506548872755</v>
       </c>
       <c r="C25">
-        <v>8.899232309599139</v>
+        <v>9.815246131287084</v>
       </c>
       <c r="D25">
-        <v>5.786327832930231</v>
+        <v>5.42871740260045</v>
       </c>
       <c r="E25">
-        <v>5.960066374094356</v>
+        <v>6.422121300339503</v>
       </c>
       <c r="F25">
-        <v>32.35416323052387</v>
+        <v>29.03912151791748</v>
       </c>
       <c r="G25">
-        <v>2.127691587523615</v>
+        <v>7.149708063155698</v>
       </c>
       <c r="H25">
-        <v>3.174052644728678</v>
+        <v>2.754632944742534</v>
       </c>
       <c r="I25">
-        <v>3.912777742236871</v>
+        <v>3.444250791659851</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.6421077461103</v>
+        <v>20.93447629637016</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.32812042247755</v>
       </c>
       <c r="M25">
-        <v>13.460569844</v>
+        <v>14.76792516998222</v>
       </c>
       <c r="N25">
-        <v>6.613940248181692</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>11.35065956833923</v>
+        <v>13.25919996904388</v>
       </c>
       <c r="P25">
-        <v>15.76269715672398</v>
+        <v>6.922183696998968</v>
       </c>
       <c r="Q25">
+        <v>10.98071692259437</v>
+      </c>
+      <c r="R25">
+        <v>14.65292475716594</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
